--- a/Qt_Request.xlsx
+++ b/Qt_Request.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="125">
   <si>
     <t>TOPICS</t>
   </si>
@@ -364,12 +364,95 @@
   <si>
     <t>https://www.learncpp.com/cpp-tutorial/6-14-pointers-to-pointers/</t>
   </si>
+  <si>
+    <t>map, filter, reduce in C++</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/cplusplus/cpp_casting_operators.htm
+https://www.bogotobogo.com/cplusplus/typecast.php
+http://www.cplusplus.com/doc/tutorial/typecasting/
+https://www.geeksforgeeks.org/const_cast-in-c-type-casting-operators/
+https://www.geeksforgeeks.org/static_cast-in-c-type-casting-operators/
+https://www.geeksforgeeks.org/reinterpret_cast-in-c-type-casting-operators/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/function-pointer-in-c/
+https://viblo.asia/p/virtual-function-ham-ao-override-va-final-naQZRWRPlvx
+https://www.geeksforgeeks.org/early-binding-late-binding-c/
+https://www.learncpp.com/cpp-tutorial/124-early-binding-and-late-binding/</t>
+  </si>
+  <si>
+    <t>https://doc.froglogic.com/squish/latest/tutorials-qt.html</t>
+  </si>
+  <si>
+    <t>+ How many ways config AUTs with test scripts?</t>
+  </si>
+  <si>
+    <t>+ How to attach to running applications in a distributed environment ?</t>
+  </si>
+  <si>
+    <t>+ What is Squish , Squish IDE, Squish runner , Squish server &amp; SquishHook?+ How to set the default value, on a Test-Suite basis?</t>
+  </si>
+  <si>
+    <t>+ How does Squish find object from AUT's ?</t>
+  </si>
+  <si>
+    <t>+ Investigating about the concept object map+ How to pick object or name to define unique object map?</t>
+  </si>
+  <si>
+    <t>+ How to find and use dynamic objects?</t>
+  </si>
+  <si>
+    <t>+ How to Share Object Map Across Test Suites ?</t>
+  </si>
+  <si>
+    <t>+ Locate the item to update in the Object Map</t>
+  </si>
+  <si>
+    <t>+ How to update the real name for Object name in the Object map view?</t>
+  </si>
+  <si>
+    <t>+ How to adjust the waitForObject timeout?</t>
+  </si>
+  <si>
+    <t>+ How many steps to Mask a Screenshot Verification Point ?</t>
+  </si>
+  <si>
+    <t>+ What is the symbolic name? What is it for?+ How to use spy?</t>
+  </si>
+  <si>
+    <t>+ Investigating about Script based Object Map &amp; Text Based Object Map+ How to test multiples AUTs under a test case ( test script) ?</t>
+  </si>
+  <si>
+    <t>+ Investigating about Nested Object Names+ What is Visual Verification Points ?</t>
+  </si>
+  <si>
+    <t>+ What is Descriptor File ?</t>
+  </si>
+  <si>
+    <t>What is its function?</t>
+  </si>
+  <si>
+    <t>+ Learn &amp; Practice sample app using Qt</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>design pattern</t>
+  </si>
+  <si>
+    <t>biến static trong class và static func</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +521,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -508,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -563,6 +652,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -854,7 +949,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -866,10 +961,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
@@ -960,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -978,10 +1073,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
@@ -1241,12 +1336,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1317,12 +1415,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1374,7 +1478,9 @@
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1382,10 +1488,26 @@
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
     </row>
-    <row r="54" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
+      <c r="B56" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1397,33 +1519,35 @@
     <hyperlink ref="E41" r:id="rId2"/>
     <hyperlink ref="E39" r:id="rId3"/>
     <hyperlink ref="E43" r:id="rId4"/>
+    <hyperlink ref="E44" r:id="rId5" display="https://www.geeksforgeeks.org/function-pointer-in-c/"/>
+    <hyperlink ref="E37" r:id="rId6" display="https://www.tutorialspoint.com/cplusplus/cpp_casting_operators.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57" style="1" customWidth="1"/>
-    <col min="3" max="3" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
@@ -1588,16 +1712,103 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C28" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
+      <c r="C29" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C30" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C31" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C32" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C33" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C34" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C35" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C36" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C37" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C38" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="C39" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C40" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C41" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C42" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C43" s="20" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B27" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Qt_Request.xlsx
+++ b/Qt_Request.xlsx
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="107" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>

--- a/Qt_Request.xlsx
+++ b/Qt_Request.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Background" sheetId="6" r:id="rId1"/>
     <sheet name="Developer" sheetId="4" r:id="rId2"/>
     <sheet name="Tester" sheetId="3" r:id="rId3"/>
+    <sheet name="STL Library" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="181">
   <si>
     <t>TOPICS</t>
   </si>
@@ -334,9 +335,6 @@
 Can develop scripts for automating SW integration and test</t>
   </si>
   <si>
-    <t>Xem lại oop + solid</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -436,23 +434,227 @@
     <t>+ Learn &amp; Practice sample app using Qt</t>
   </si>
   <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>design pattern</t>
-  </si>
-  <si>
     <t>biến static trong class và static func</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>Iterators:</t>
+  </si>
+  <si>
+    <t>rbegin</t>
+  </si>
+  <si>
+    <t>rend</t>
+  </si>
+  <si>
+    <t>cbegin</t>
+  </si>
+  <si>
+    <t>cend</t>
+  </si>
+  <si>
+    <t>Capacity:</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <r>
+      <t>Element access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>push_front</t>
+  </si>
+  <si>
+    <t>pop_front</t>
+  </si>
+  <si>
+    <t>push_back</t>
+  </si>
+  <si>
+    <t>pop_back</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>erase</t>
+  </si>
+  <si>
+    <t>swap</t>
+  </si>
+  <si>
+    <t>resize</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <r>
+      <t>Operations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.cplusplus.com/reference/list/list/</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>remove_if</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>reverse</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>http://www.cplusplus.com/reference/vector/vector/</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <r>
+      <t>Modifiers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.cplusplus.com/reference/stack/stack/</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>http://www.cplusplus.com/reference/queue/queue/</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>http://www.cplusplus.com/reference/set/set/</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>http://www.cplusplus.com/reference/map/map/</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>lamda and countif</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/static-keyword-cpp/</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>find_if</t>
+  </si>
+  <si>
+    <t>count_if</t>
+  </si>
+  <si>
+    <t>http://www.cplusplus.com/reference/algorithm/</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>accumulate</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/lambda-expression-in-c/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +730,35 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -597,7 +828,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -664,6 +895,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1055,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1261,10 +1501,10 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
@@ -1277,7 +1517,7 @@
       <c r="C31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1289,7 +1529,7 @@
         <v>61</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="114" x14ac:dyDescent="0.25">
@@ -1308,7 +1548,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="141" customHeight="1" x14ac:dyDescent="0.25">
@@ -1319,10 +1559,10 @@
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
@@ -1333,7 +1573,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1344,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1356,10 +1596,10 @@
         <v>9</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1370,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1388,10 +1628,10 @@
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1400,7 +1640,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
@@ -1409,10 +1649,10 @@
         <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1423,10 +1663,10 @@
         <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1479,7 +1719,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" s="4"/>
     </row>
@@ -1489,25 +1729,23 @@
       <c r="C53" s="10"/>
     </row>
     <row r="54" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>122</v>
+        <v>170</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>124</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1521,9 +1759,10 @@
     <hyperlink ref="E43" r:id="rId4"/>
     <hyperlink ref="E44" r:id="rId5" display="https://www.geeksforgeeks.org/function-pointer-in-c/"/>
     <hyperlink ref="E37" r:id="rId6" display="https://www.tutorialspoint.com/cplusplus/cpp_casting_operators.htm"/>
+    <hyperlink ref="C55" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1531,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="107" workbookViewId="0">
+    <sheetView zoomScale="107" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -1714,91 +1953,91 @@
     </row>
     <row r="27" spans="1:3" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="C29" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C30" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C31" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C32" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C33" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C34" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C35" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C36" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C37" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C38" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="3:3" ht="33" x14ac:dyDescent="0.25">
       <c r="C39" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C40" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C41" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C42" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C43" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1811,4 +2050,492 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="27" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="G1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Qt_Request.xlsx
+++ b/Qt_Request.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="184">
   <si>
     <t>TOPICS</t>
   </si>
@@ -363,9 +363,6 @@
     <t>https://www.learncpp.com/cpp-tutorial/6-14-pointers-to-pointers/</t>
   </si>
   <si>
-    <t>map, filter, reduce in C++</t>
-  </si>
-  <si>
     <t>https://www.tutorialspoint.com/cplusplus/cpp_casting_operators.htm
 https://www.bogotobogo.com/cplusplus/typecast.php
 http://www.cplusplus.com/doc/tutorial/typecasting/
@@ -432,9 +429,6 @@
   </si>
   <si>
     <t>+ Learn &amp; Practice sample app using Qt</t>
-  </si>
-  <si>
-    <t>biến static trong class và static func</t>
   </si>
   <si>
     <t>List</t>
@@ -617,9 +611,6 @@
     <t>at</t>
   </si>
   <si>
-    <t>lamda and countif</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/static-keyword-cpp/</t>
   </si>
   <si>
@@ -648,6 +639,24 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/lambda-expression-in-c/</t>
+  </si>
+  <si>
+    <t>Static variable and static method in class</t>
+  </si>
+  <si>
+    <t>Lamda and &lt;algorithm&gt;</t>
+  </si>
+  <si>
+    <t>Map, filter, reduce in C++</t>
+  </si>
+  <si>
+    <t>just is transform, remove_if, accumulate</t>
+  </si>
+  <si>
+    <t>Class of code</t>
+  </si>
+  <si>
+    <t>Go to leetcode</t>
   </si>
 </sst>
 </file>
@@ -828,7 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -890,12 +899,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -904,6 +907,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1201,10 +1213,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="22"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
@@ -1295,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1306,17 +1318,17 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="110.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="90.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="22"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
@@ -1444,7 +1456,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="14"/>
@@ -1533,7 +1545,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="114" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -1541,7 +1553,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1552,7 +1564,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -1577,14 +1589,14 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1656,7 +1668,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -1666,7 +1678,7 @@
         <v>91</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1719,9 +1731,11 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="53" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
@@ -1729,23 +1743,35 @@
       <c r="C53" s="10"/>
     </row>
     <row r="54" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>120</v>
+      <c r="B54" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="5" t="s">
-        <v>170</v>
+      <c r="B55" s="28" t="s">
+        <v>179</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="28"/>
+      <c r="C56" s="19"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1783,10 +1809,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="22"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
@@ -1953,91 +1979,91 @@
     </row>
     <row r="27" spans="1:3" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C28" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="C29" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C30" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C31" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C32" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C33" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C34" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C35" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C36" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C37" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C38" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="3:3" ht="33" x14ac:dyDescent="0.25">
       <c r="C39" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C40" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C41" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C42" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="3:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C43" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2056,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,470 +2097,471 @@
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="27" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="27" t="s">
+    <row r="1" spans="1:19" s="25" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
+      <c r="G2" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>124</v>
+      <c r="A3" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>173</v>
+        <v>128</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>129</v>
+      <c r="A11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>132</v>
+      <c r="A15" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>155</v>
+      <c r="F19" s="23" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>144</v>
+      <c r="A30" s="23" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="G1" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Qt_Request.xlsx
+++ b/Qt_Request.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="186">
   <si>
     <t>TOPICS</t>
   </si>
@@ -657,6 +657,12 @@
   </si>
   <si>
     <t>Go to leetcode</t>
+  </si>
+  <si>
+    <t>How to call method from C++ to QML</t>
+  </si>
+  <si>
+    <t>How to detect a property of model of C++ change in QML</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1316,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1512,12 @@
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="4"/>
+      <c r="B29" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
@@ -1764,12 +1775,12 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="16" t="s">
         <v>182</v>
       </c>
     </row>

--- a/Qt_Request.xlsx
+++ b/Qt_Request.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="187">
   <si>
     <t>TOPICS</t>
   </si>
@@ -663,6 +663,9 @@
   </si>
   <si>
     <t>How to detect a property of model of C++ change in QML</t>
+  </si>
+  <si>
+    <t>Regex</t>
   </si>
 </sst>
 </file>
@@ -914,14 +917,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1219,10 +1222,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
@@ -1313,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1324,17 +1327,17 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
     <col min="5" max="5" width="90.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
@@ -1762,7 +1765,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="26" t="s">
         <v>179</v>
       </c>
       <c r="C55" s="19" t="s">
@@ -1770,17 +1773,23 @@
       </c>
     </row>
     <row r="56" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="28"/>
+      <c r="B56" s="26" t="s">
+        <v>186</v>
+      </c>
       <c r="C56" s="19"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="16" t="s">
+    <row r="57" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" s="26"/>
+      <c r="C57" s="19"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="16" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="16" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="16" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1820,10 +1829,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
